--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45A2D9-5203-47DF-A266-235484DD07C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A3D1BB-D4AD-431D-A992-E952B246BA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="6" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -119,6 +120,24 @@
   </si>
   <si>
     <t>NGC-3477/T1846/T1848</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>P32AR-CH</t>
+  </si>
+  <si>
+    <t>P32DR-CH</t>
+  </si>
+  <si>
+    <t>PR1DSCH</t>
+  </si>
+  <si>
+    <t>PR8ASCH</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2643/T2644</t>
   </si>
 </sst>
 </file>
@@ -694,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -992,4 +1011,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC67F00-F4FA-4387-9CD1-8C58E5F6AC49}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A3D1BB-D4AD-431D-A992-E952B246BA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9A4329-9CCE-4A8F-8339-0AC401881E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="6" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="11" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>NGC-3476/T2643/T2644</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2434/T2437</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -562,7 +569,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC67F00-F4FA-4387-9CD1-8C58E5F6AC49}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1173,4 +1180,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5542FFD2-C2F5-4074-A675-68AEF6B23092}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9A4329-9CCE-4A8F-8339-0AC401881E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D436CB-855E-48EC-9D89-E31A143E2D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="11" r:id="rId4"/>
     <sheet name="Portugal" sheetId="12" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
   <si>
     <t>Wg</t>
   </si>
@@ -145,6 +146,9 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3176/T3179</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5542FFD2-C2F5-4074-A675-68AEF6B23092}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,4 +1336,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F0A204-487A-44D5-9E18-EB53DEE9B4E2}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D436CB-855E-48EC-9D89-E31A143E2D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCD6CCB-2A99-4C03-856B-2931526BD274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="11" r:id="rId4"/>
     <sheet name="Portugal" sheetId="12" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="13" r:id="rId6"/>
+    <sheet name="Italy" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -149,6 +150,12 @@
   </si>
   <si>
     <t>NGC-2930/T3176/T3179</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2221/T2223</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F0A204-487A-44D5-9E18-EB53DEE9B4E2}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1478,4 +1485,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C45D0A-722A-4BE5-85AD-53232BCEDAB3}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCD6CCB-2A99-4C03-856B-2931526BD274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2217D01-8D43-4B8C-B753-700545A9837E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="12" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="13" r:id="rId6"/>
     <sheet name="Italy" sheetId="14" r:id="rId7"/>
+    <sheet name="Spain" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="41">
   <si>
     <t>Wg</t>
   </si>
@@ -156,6 +157,12 @@
   </si>
   <si>
     <t>NGC-3145/T2221/T2223</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2050/</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
   </si>
 </sst>
 </file>
@@ -1491,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C45D0A-722A-4BE5-85AD-53232BCEDAB3}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1636,4 +1643,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0532A186-0324-4EC3-B39A-5AADBF45222F}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2217D01-8D43-4B8C-B753-700545A9837E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B81FD3-A9BB-4D45-91C0-55A0F67F7358}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="13" r:id="rId6"/>
     <sheet name="Italy" sheetId="14" r:id="rId7"/>
     <sheet name="Spain" sheetId="15" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="43">
   <si>
     <t>Wg</t>
   </si>
@@ -163,6 +164,12 @@
   </si>
   <si>
     <t>Spain Market</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3309/</t>
   </si>
 </sst>
 </file>
@@ -1649,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0532A186-0324-4EC3-B39A-5AADBF45222F}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1794,4 +1801,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE11913-5FDA-41FC-A720-F9DC8A89A936}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B81FD3-A9BB-4D45-91C0-55A0F67F7358}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA58866-6513-4BCB-B020-FF0F02F99603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="14" r:id="rId7"/>
     <sheet name="Spain" sheetId="15" r:id="rId8"/>
     <sheet name="Turkey" sheetId="16" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="45">
   <si>
     <t>Wg</t>
   </si>
@@ -170,6 +171,12 @@
   </si>
   <si>
     <t>NGC-3191/T3309/</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2474</t>
   </si>
 </sst>
 </file>
@@ -741,6 +748,148 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE7E23B-1A90-47E5-835F-35856B9225FB}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D21"/>
@@ -1364,7 +1513,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1657,7 +1806,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE11913-5FDA-41FC-A720-F9DC8A89A936}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA58866-6513-4BCB-B020-FF0F02F99603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6871C92E-2869-4D1E-9C26-FF90C26BA2C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="15" r:id="rId8"/>
     <sheet name="Turkey" sheetId="16" r:id="rId9"/>
     <sheet name="Croatia" sheetId="17" r:id="rId10"/>
+    <sheet name="Greece" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -177,6 +178,12 @@
   </si>
   <si>
     <t>NGC-3139/T2474</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3204</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -752,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE7E23B-1A90-47E5-835F-35856B9225FB}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,6 +807,148 @@
       </c>
       <c r="B4" t="s">
         <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD993A-6A37-4403-8B13-DAB09583AA04}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6871C92E-2869-4D1E-9C26-FF90C26BA2C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A42EB6-3FDF-4120-9724-258ABC113077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="16" r:id="rId9"/>
     <sheet name="Croatia" sheetId="17" r:id="rId10"/>
     <sheet name="Greece" sheetId="18" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="19" r:id="rId12"/>
+    <sheet name="Austria" sheetId="20" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -184,6 +187,27 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2189</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2296</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>MZXSDR240</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2782</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -901,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD993A-6A37-4403-8B13-DAB09583AA04}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1026,6 +1050,444 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2887D31D-9BDB-4E4A-BDC1-921AD0490FB5}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7153591A-36A8-403D-BF8C-A7FC6009B25E}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E448C9F-8F99-4D64-8480-9BCE9ADB3260}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A42EB6-3FDF-4120-9724-258ABC113077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A8A2A1-81EE-4FBD-A182-45CCDFFCB471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="19" r:id="rId12"/>
     <sheet name="Austria" sheetId="20" r:id="rId13"/>
     <sheet name="Denmark" sheetId="21" r:id="rId14"/>
+    <sheet name="Russia" sheetId="23" r:id="rId15"/>
+    <sheet name="Finland" sheetId="24" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="25" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="60">
   <si>
     <t>Wg</t>
   </si>
@@ -208,6 +211,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2909/</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2886/</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2978/</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E448C9F-8F99-4D64-8480-9BCE9ADB3260}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1488,6 +1509,434 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674FF1B9-5F0E-43E3-BBC3-20E0C0101576}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED203C3-9429-4E93-A545-803C9EAD04DF}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F30B05-AD49-4FEA-B48C-0483096D8BB7}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A8A2A1-81EE-4FBD-A182-45CCDFFCB471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E202B703-5E14-4AE4-A3B5-5CBFB018428C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="23" r:id="rId15"/>
     <sheet name="Finland" sheetId="24" r:id="rId16"/>
     <sheet name="Hungary" sheetId="25" r:id="rId17"/>
+    <sheet name="Norway" sheetId="26" r:id="rId18"/>
+    <sheet name="Poland" sheetId="27" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="64">
   <si>
     <t>Wg</t>
   </si>
@@ -229,6 +231,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3070/T3071</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/3036/T3037</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F30B05-AD49-4FEA-B48C-0483096D8BB7}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1867,6 +1881,295 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8224054-2ECA-4777-8B2C-B0C4BC4EE8C6}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A829EFE5-80FE-4E80-9DA8-BFC201A578A3}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_MainProcessor_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E202B703-5E14-4AE4-A3B5-5CBFB018428C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5313B1DE-7EB3-4E91-8CCC-FD484F48402E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="25" r:id="rId17"/>
     <sheet name="Norway" sheetId="26" r:id="rId18"/>
     <sheet name="Poland" sheetId="27" r:id="rId19"/>
+    <sheet name="UK" sheetId="28" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="66">
   <si>
     <t>Wg</t>
   </si>
@@ -243,6 +244,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3364</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8224054-2ECA-4777-8B2C-B0C4BC4EE8C6}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2405,6 +2412,158 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B05FA-3C66-4D53-B980-CCE23D0D18CA}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2CD2B-2CE0-43F6-8953-9B0019F38FA2}">
   <dimension ref="A1:D21"/>
